--- a/src/test/resources/testdata/loginTestData.xlsx
+++ b/src/test/resources/testdata/loginTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lakshmy-SeleniumWorkSpace\OpenCartTest\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31676C6E-1DCB-4522-9955-84E02E44C1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C9320-7965-448F-B34E-5DF53EDB80FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7290" xr2:uid="{9F16C835-A618-441D-913D-7482C88E8F34}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{9F16C835-A618-441D-913D-7482C88E8F34}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
